--- a/Practicas/sesion3/Generación Instrucciones.xlsx
+++ b/Practicas/sesion3/Generación Instrucciones.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aroaa\OneDrive\Documentos\GitHub\AOC2\Practicas\sesion3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B904896-87D4-4BC2-A95B-30A41C3F85E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD7EDF-0743-4F81-8165-A179E525CB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="LOAD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="83">
   <si>
     <t>Todos los operandos deben ir en decimal sin signo</t>
   </si>
@@ -182,9 +183,6 @@
     <t>sw r1, 8(r4)</t>
   </si>
   <si>
-    <t>JAL R0, 18</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADD r8,r2,r3   </t>
   </si>
   <si>
@@ -205,6 +203,93 @@
   <si>
     <t>19</t>
   </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>JAL R0, 19</t>
+  </si>
+  <si>
+    <t>LW R1, 4(R3)</t>
+  </si>
+  <si>
+    <t>LW R2, 0(R1)</t>
+  </si>
+  <si>
+    <t>LW R3, 4(R1)</t>
+  </si>
+  <si>
+    <t>LW R4, 8(R1)</t>
+  </si>
+  <si>
+    <t>LW R5, 12(R1)</t>
+  </si>
+  <si>
+    <t>LW R6, 16(R1)</t>
+  </si>
+  <si>
+    <t>LW R7c 20(R1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1</t>
+  </si>
+  <si>
+    <t>ADD r8,r3, r2</t>
+  </si>
+  <si>
+    <t>ADD r11, r6, r7</t>
+  </si>
+  <si>
+    <t>ADD r8, r8, r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add r8, r8, r11 </t>
+  </si>
+  <si>
+    <t>ADD     r10, r4, r5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +300,7 @@
     <numFmt numFmtId="165" formatCode="0000000000000000"/>
     <numFmt numFmtId="166" formatCode="00000000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,11 +353,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF7E3794"/>
       <name val="Inconsolata"/>
     </font>
@@ -303,6 +383,19 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -461,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -527,11 +620,7 @@
     <xf numFmtId="166" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -543,7 +632,7 @@
     <xf numFmtId="166" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,7 +646,7 @@
     <xf numFmtId="165" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -565,19 +654,19 @@
     <xf numFmtId="166" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,7 +676,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,6 +685,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,11 +946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB925"/>
+  <dimension ref="A1:AB940"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="127" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -866,13 +969,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -901,12 +1004,12 @@
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
         <v>3</v>
@@ -975,7 +1078,7 @@
       <c r="AB4" s="19"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1021,7 +1124,7 @@
         <v>08</v>
       </c>
       <c r="N5" s="26" t="str">
-        <f t="shared" ref="N5:N6" si="7">J5&amp;K5&amp;L5&amp;M5</f>
+        <f t="shared" ref="N5" si="7">J5&amp;K5&amp;L5&amp;M5</f>
         <v>08010008</v>
       </c>
       <c r="O5" s="7"/>
@@ -1034,49 +1137,49 @@
       <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="53" t="s">
-        <v>50</v>
+      <c r="A6" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21" t="str">
-        <f t="shared" ref="F6" si="8">DEC2BIN(B6,5)</f>
+        <f t="shared" ref="F6:F7" si="8">DEC2BIN(B6,5)</f>
         <v>00001</v>
       </c>
       <c r="G6" s="22" t="str">
-        <f t="shared" ref="G6" si="9">DEC2BIN(C6,5)</f>
+        <f t="shared" ref="G6:G7" si="9">DEC2BIN(C6,5)</f>
         <v>00111</v>
       </c>
       <c r="H6" s="23" t="str">
-        <f t="shared" ref="H6" si="10">DEC2BIN(2,6)&amp;F6&amp;G6</f>
+        <f t="shared" ref="H6:H7" si="10">DEC2BIN(2,6)&amp;F6&amp;G6</f>
         <v>0000100000100111</v>
       </c>
       <c r="I6" s="22" t="str">
-        <f t="shared" ref="I6" si="11">DEC2BIN(QUOTIENT(D6,256),8)&amp;DEC2BIN(MOD(D6,256),8)</f>
+        <f t="shared" ref="I6:I7" si="11">DEC2BIN(QUOTIENT(D6,256),8)&amp;DEC2BIN(MOD(D6,256),8)</f>
         <v>0000000000010100</v>
       </c>
       <c r="J6" s="24" t="str">
-        <f t="shared" ref="J6" si="12">BIN2HEX(LEFTB(H6,8),2)</f>
+        <f t="shared" ref="J6:J7" si="12">BIN2HEX(LEFTB(H6,8),2)</f>
         <v>08</v>
       </c>
       <c r="K6" s="25" t="str">
-        <f t="shared" ref="K6" si="13">BIN2HEX(RIGHTB(H6,8),2)</f>
+        <f t="shared" ref="K6:K7" si="13">BIN2HEX(RIGHTB(H6,8),2)</f>
         <v>27</v>
       </c>
       <c r="L6" s="24" t="str">
-        <f t="shared" ref="L6" si="14">BIN2HEX(LEFTB(I6,8),2)</f>
+        <f t="shared" ref="L6:L7" si="14">BIN2HEX(LEFTB(I6,8),2)</f>
         <v>00</v>
       </c>
       <c r="M6" s="25" t="str">
-        <f t="shared" ref="M6" si="15">BIN2HEX(RIGHTB(I6,8),2)</f>
+        <f t="shared" ref="M6:M7" si="15">BIN2HEX(RIGHTB(I6,8),2)</f>
         <v>14</v>
       </c>
       <c r="N6" s="26" t="str">
@@ -1093,88 +1196,222 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="A7" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>00011</v>
+      </c>
+      <c r="G7" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>00001</v>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f t="shared" si="10"/>
+        <v>0000100001100001</v>
+      </c>
+      <c r="I7" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v>0000000000000100</v>
+      </c>
+      <c r="J7" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="K7" s="25" t="str">
+        <f t="shared" si="13"/>
+        <v>61</v>
+      </c>
+      <c r="L7" s="24" t="str">
+        <f t="shared" si="14"/>
+        <v>00</v>
+      </c>
+      <c r="M7" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>04</v>
+      </c>
+      <c r="N7" s="26" t="str">
+        <f>J7&amp;K7&amp;L7&amp;M7</f>
+        <v>08610004</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="str">
+        <f t="shared" ref="F8:F11" si="17">DEC2BIN(B8,5)</f>
+        <v>00011</v>
+      </c>
+      <c r="G8" s="22" t="str">
+        <f t="shared" ref="G8:G11" si="18">DEC2BIN(C8,5)</f>
+        <v>10011</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f t="shared" ref="H8:H11" si="19">DEC2BIN(2,6)&amp;F8&amp;G8</f>
+        <v>0000100001110011</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f t="shared" ref="I8:I11" si="20">DEC2BIN(QUOTIENT(D8,256),8)&amp;DEC2BIN(MOD(D8,256),8)</f>
+        <v>0000000000101100</v>
+      </c>
+      <c r="J8" s="24" t="str">
+        <f t="shared" ref="J8:J11" si="21">BIN2HEX(LEFTB(H8,8),2)</f>
+        <v>08</v>
+      </c>
+      <c r="K8" s="25" t="str">
+        <f t="shared" ref="K8:K11" si="22">BIN2HEX(RIGHTB(H8,8),2)</f>
+        <v>73</v>
+      </c>
+      <c r="L8" s="24" t="str">
+        <f t="shared" ref="L8:L11" si="23">BIN2HEX(LEFTB(I8,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="M8" s="25" t="str">
+        <f t="shared" ref="M8:M11" si="24">BIN2HEX(RIGHTB(I8,8),2)</f>
+        <v>2C</v>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f t="shared" ref="N8:N11" si="25">J8&amp;K8&amp;L8&amp;M8</f>
+        <v>0873002C</v>
+      </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v>00001</v>
+      </c>
+      <c r="G9" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>00010</v>
+      </c>
+      <c r="H9" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v>0000100000100010</v>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v>0000000000000000</v>
+      </c>
+      <c r="J9" s="24" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="K9" s="25" t="str">
+        <f t="shared" si="22"/>
+        <v>22</v>
+      </c>
+      <c r="L9" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="M9" s="25" t="str">
+        <f t="shared" si="24"/>
+        <v>00</v>
+      </c>
+      <c r="N9" s="26" t="str">
+        <f t="shared" si="25"/>
+        <v>08220000</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11" t="s">
-        <v>4</v>
+    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v>00001</v>
+      </c>
+      <c r="G10" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>00011</v>
+      </c>
+      <c r="H10" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v>0000100000100011</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v>0000000000000100</v>
+      </c>
+      <c r="J10" s="24" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="K10" s="25" t="str">
+        <f t="shared" si="22"/>
+        <v>23</v>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="M10" s="25" t="str">
+        <f t="shared" si="24"/>
+        <v>04</v>
+      </c>
+      <c r="N10" s="26" t="str">
+        <f t="shared" si="25"/>
+        <v>08230004</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1182,195 +1419,231 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
+    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="str">
+        <f t="shared" si="17"/>
+        <v>00001</v>
+      </c>
+      <c r="G11" s="22" t="str">
+        <f t="shared" si="18"/>
+        <v>00100</v>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v>0000100000100100</v>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v>0000000000001000</v>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="21"/>
+        <v>08</v>
+      </c>
+      <c r="K11" s="25" t="str">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="23"/>
+        <v>00</v>
+      </c>
+      <c r="M11" s="25" t="str">
+        <f t="shared" si="24"/>
+        <v>08</v>
+      </c>
+      <c r="N11" s="26" t="str">
+        <f t="shared" si="25"/>
+        <v>08240008</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>16</v>
+      <c r="A12" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="21" t="str">
-        <f t="shared" ref="F12:G12" si="17">DEC2BIN(B12,5)</f>
-        <v>00100</v>
+        <f t="shared" ref="F12:F14" si="26">DEC2BIN(B12,5)</f>
+        <v>00001</v>
       </c>
       <c r="G12" s="22" t="str">
-        <f t="shared" si="17"/>
-        <v>00001</v>
-      </c>
-      <c r="H12" s="29" t="str">
-        <f t="shared" ref="H12" si="18">DEC2BIN(3,6)&amp;F12&amp;G12</f>
-        <v>0000110010000001</v>
+        <f t="shared" ref="G12:G14" si="27">DEC2BIN(C12,5)</f>
+        <v>00101</v>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f t="shared" ref="H12:H14" si="28">DEC2BIN(2,6)&amp;F12&amp;G12</f>
+        <v>0000100000100101</v>
       </c>
       <c r="I12" s="22" t="str">
-        <f t="shared" ref="I12" si="19">DEC2BIN(QUOTIENT(D12,256),8)&amp;DEC2BIN(MOD(D12,256),8)</f>
-        <v>0000000000001000</v>
+        <f t="shared" ref="I12:I14" si="29">DEC2BIN(QUOTIENT(D12,256),8)&amp;DEC2BIN(MOD(D12,256),8)</f>
+        <v>0000000000001100</v>
       </c>
       <c r="J12" s="24" t="str">
-        <f t="shared" ref="J12" si="20">BIN2HEX(LEFTB(H12,8),2)</f>
+        <f t="shared" ref="J12:J14" si="30">BIN2HEX(LEFTB(H12,8),2)</f>
+        <v>08</v>
+      </c>
+      <c r="K12" s="25" t="str">
+        <f t="shared" ref="K12:K14" si="31">BIN2HEX(RIGHTB(H12,8),2)</f>
+        <v>25</v>
+      </c>
+      <c r="L12" s="24" t="str">
+        <f t="shared" ref="L12:L14" si="32">BIN2HEX(LEFTB(I12,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="M12" s="25" t="str">
+        <f t="shared" ref="M12:M14" si="33">BIN2HEX(RIGHTB(I12,8),2)</f>
         <v>0C</v>
       </c>
-      <c r="K12" s="25" t="str">
-        <f t="shared" ref="K12" si="21">BIN2HEX(RIGHTB(H12,8),2)</f>
-        <v>81</v>
-      </c>
-      <c r="L12" s="24" t="str">
-        <f t="shared" ref="L12" si="22">BIN2HEX(LEFTB(I12,8),2)</f>
-        <v>00</v>
-      </c>
-      <c r="M12" s="25" t="str">
-        <f t="shared" ref="M12" si="23">BIN2HEX(RIGHTB(I12,8),2)</f>
-        <v>08</v>
-      </c>
       <c r="N12" s="26" t="str">
-        <f t="shared" ref="N12" si="24">J12&amp;K12&amp;L12&amp;M12</f>
-        <v>0C810008</v>
+        <f t="shared" ref="N12:N14" si="34">J12&amp;K12&amp;L12&amp;M12</f>
+        <v>0825000C</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>14</v>
+      <c r="A13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="21" t="str">
-        <f t="shared" ref="F13" si="25">DEC2BIN(B13,5)</f>
-        <v>01001</v>
+        <f t="shared" si="26"/>
+        <v>00110</v>
       </c>
       <c r="G13" s="22" t="str">
-        <f t="shared" ref="G13" si="26">DEC2BIN(C13,5)</f>
-        <v>01000</v>
-      </c>
-      <c r="H13" s="29" t="str">
-        <f t="shared" ref="H13" si="27">DEC2BIN(3,6)&amp;F13&amp;G13</f>
-        <v>0000110100101000</v>
+        <f t="shared" si="27"/>
+        <v>00110</v>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>0000100011000110</v>
       </c>
       <c r="I13" s="22" t="str">
-        <f t="shared" ref="I13" si="28">DEC2BIN(QUOTIENT(D13,256),8)&amp;DEC2BIN(MOD(D13,256),8)</f>
-        <v>0000000000000000</v>
+        <f t="shared" si="29"/>
+        <v>0000000000010000</v>
       </c>
       <c r="J13" s="24" t="str">
-        <f t="shared" ref="J13" si="29">BIN2HEX(LEFTB(H13,8),2)</f>
-        <v>0D</v>
+        <f t="shared" si="30"/>
+        <v>08</v>
       </c>
       <c r="K13" s="25" t="str">
-        <f t="shared" ref="K13" si="30">BIN2HEX(RIGHTB(H13,8),2)</f>
-        <v>28</v>
+        <f t="shared" si="31"/>
+        <v>C6</v>
       </c>
       <c r="L13" s="24" t="str">
-        <f t="shared" ref="L13" si="31">BIN2HEX(LEFTB(I13,8),2)</f>
+        <f t="shared" si="32"/>
         <v>00</v>
       </c>
       <c r="M13" s="25" t="str">
-        <f t="shared" ref="M13" si="32">BIN2HEX(RIGHTB(I13,8),2)</f>
-        <v>00</v>
+        <f t="shared" si="33"/>
+        <v>10</v>
       </c>
       <c r="N13" s="26" t="str">
-        <f t="shared" ref="N13" si="33">J13&amp;K13&amp;L13&amp;M13</f>
-        <v>0D280000</v>
+        <f t="shared" si="34"/>
+        <v>08C60010</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21" t="str">
+        <f t="shared" si="26"/>
+        <v>00110</v>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f t="shared" si="27"/>
+        <v>00111</v>
+      </c>
+      <c r="H14" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>0000100011000111</v>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f t="shared" si="29"/>
+        <v>0000000000010100</v>
+      </c>
+      <c r="J14" s="24" t="str">
+        <f t="shared" si="30"/>
+        <v>08</v>
+      </c>
+      <c r="K14" s="25" t="str">
+        <f t="shared" si="31"/>
+        <v>C7</v>
+      </c>
+      <c r="L14" s="24" t="str">
+        <f t="shared" si="32"/>
+        <v>00</v>
+      </c>
+      <c r="M14" s="25" t="str">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="N14" s="26" t="str">
+        <f t="shared" si="34"/>
+        <v>08C70014</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1390,25 +1663,23 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1419,12 +1690,12 @@
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9" t="s">
         <v>3</v>
@@ -1478,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="P18" s="7"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
@@ -1493,54 +1764,54 @@
       <c r="AB18" s="19"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>24</v>
+      <c r="A19" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21" t="str">
-        <f t="shared" ref="F19:G19" si="34">DEC2BIN(B19,5)</f>
-        <v>00000</v>
+        <f t="shared" ref="F19:G19" si="35">DEC2BIN(B19,5)</f>
+        <v>00100</v>
       </c>
       <c r="G19" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>00000</v>
-      </c>
-      <c r="H19" s="23" t="str">
-        <f t="shared" ref="H19:H21" si="35">DEC2BIN(4,6)&amp;F19&amp;G19</f>
-        <v>0001000000000000</v>
+        <f t="shared" si="35"/>
+        <v>00001</v>
+      </c>
+      <c r="H19" s="27" t="str">
+        <f t="shared" ref="H19" si="36">DEC2BIN(3,6)&amp;F19&amp;G19</f>
+        <v>0000110010000001</v>
       </c>
       <c r="I19" s="22" t="str">
-        <f t="shared" ref="I19:I21" si="36">DEC2BIN(QUOTIENT(D19,256),8)&amp;DEC2BIN(MOD(D19,256),8)</f>
-        <v>1111111111111111</v>
+        <f t="shared" ref="I19" si="37">DEC2BIN(QUOTIENT(D19,256),8)&amp;DEC2BIN(MOD(D19,256),8)</f>
+        <v>0000000000001000</v>
       </c>
       <c r="J19" s="24" t="str">
-        <f t="shared" ref="J19:J21" si="37">BIN2HEX(LEFTB(H19,8),2)</f>
-        <v>10</v>
+        <f t="shared" ref="J19" si="38">BIN2HEX(LEFTB(H19,8),2)</f>
+        <v>0C</v>
       </c>
       <c r="K19" s="25" t="str">
-        <f t="shared" ref="K19:K21" si="38">BIN2HEX(RIGHTB(H19,8),2)</f>
+        <f t="shared" ref="K19" si="39">BIN2HEX(RIGHTB(H19,8),2)</f>
+        <v>81</v>
+      </c>
+      <c r="L19" s="24" t="str">
+        <f t="shared" ref="L19" si="40">BIN2HEX(LEFTB(I19,8),2)</f>
         <v>00</v>
       </c>
-      <c r="L19" s="24" t="str">
-        <f t="shared" ref="L19:L21" si="39">BIN2HEX(LEFTB(I19,8),2)</f>
-        <v>FF</v>
-      </c>
       <c r="M19" s="25" t="str">
-        <f t="shared" ref="M19:M21" si="40">BIN2HEX(RIGHTB(I19,8),2)</f>
-        <v>FF</v>
+        <f t="shared" ref="M19" si="41">BIN2HEX(RIGHTB(I19,8),2)</f>
+        <v>08</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" ref="N19:N20" si="41">J19&amp;K19&amp;L19&amp;M19</f>
-        <v>1000FFFF</v>
+        <f t="shared" ref="N19" si="42">J19&amp;K19&amp;L19&amp;M19</f>
+        <v>0C810008</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1552,54 +1823,54 @@
       <c r="V19" s="7"/>
     </row>
     <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>26</v>
+      <c r="A20" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="21" t="str">
-        <f t="shared" ref="F20:G20" si="42">DEC2BIN(B20,5)</f>
-        <v>00001</v>
+        <f t="shared" ref="F20" si="43">DEC2BIN(B20,5)</f>
+        <v>01001</v>
       </c>
       <c r="G20" s="22" t="str">
-        <f t="shared" si="42"/>
-        <v>00001</v>
-      </c>
-      <c r="H20" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>0001000000100001</v>
+        <f t="shared" ref="G20" si="44">DEC2BIN(C20,5)</f>
+        <v>01000</v>
+      </c>
+      <c r="H20" s="27" t="str">
+        <f t="shared" ref="H20" si="45">DEC2BIN(3,6)&amp;F20&amp;G20</f>
+        <v>0000110100101000</v>
       </c>
       <c r="I20" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>0000000001101100</v>
+        <f t="shared" ref="I20" si="46">DEC2BIN(QUOTIENT(D20,256),8)&amp;DEC2BIN(MOD(D20,256),8)</f>
+        <v>0000000000000000</v>
       </c>
       <c r="J20" s="24" t="str">
-        <f t="shared" si="37"/>
-        <v>10</v>
+        <f t="shared" ref="J20" si="47">BIN2HEX(LEFTB(H20,8),2)</f>
+        <v>0D</v>
       </c>
       <c r="K20" s="25" t="str">
-        <f t="shared" si="38"/>
-        <v>21</v>
+        <f t="shared" ref="K20" si="48">BIN2HEX(RIGHTB(H20,8),2)</f>
+        <v>28</v>
       </c>
       <c r="L20" s="24" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="L20" si="49">BIN2HEX(LEFTB(I20,8),2)</f>
         <v>00</v>
       </c>
       <c r="M20" s="25" t="str">
-        <f t="shared" si="40"/>
-        <v>6C</v>
+        <f t="shared" ref="M20" si="50">BIN2HEX(RIGHTB(I20,8),2)</f>
+        <v>00</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="41"/>
-        <v>1021006C</v>
+        <f t="shared" ref="N20" si="51">J20&amp;K20&amp;L20&amp;M20</f>
+        <v>0D280000</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1610,125 +1881,92 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="30"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="str">
-        <f t="shared" ref="F21:G21" si="43">DEC2BIN(B21,5)</f>
-        <v>00000</v>
-      </c>
-      <c r="G21" s="22" t="str">
-        <f t="shared" si="43"/>
-        <v>00000</v>
-      </c>
-      <c r="H21" s="23" t="str">
-        <f t="shared" si="35"/>
-        <v>0001000000000000</v>
-      </c>
-      <c r="I21" s="22" t="str">
-        <f t="shared" si="36"/>
-        <v>0000000000000000</v>
-      </c>
-      <c r="J21" s="24" t="str">
-        <f t="shared" si="37"/>
-        <v>10</v>
-      </c>
-      <c r="K21" s="25" t="str">
-        <f t="shared" si="38"/>
-        <v>00</v>
-      </c>
-      <c r="L21" s="24" t="str">
-        <f t="shared" si="39"/>
-        <v>00</v>
-      </c>
-      <c r="M21" s="25" t="str">
-        <f t="shared" si="40"/>
-        <v>00</v>
-      </c>
-      <c r="N21" s="26"/>
+    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    </row>
+    <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="34"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
+    </row>
+    <row r="23" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="54"/>
+      <c r="A24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="58"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -1736,133 +1974,163 @@
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="7"/>
+      <c r="A25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="18"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+    </row>
+    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21" t="str">
+        <f t="shared" ref="F26:G26" si="52">DEC2BIN(B26,5)</f>
+        <v>00000</v>
+      </c>
+      <c r="G26" s="22" t="str">
+        <f t="shared" si="52"/>
+        <v>00000</v>
+      </c>
+      <c r="H26" s="23" t="str">
+        <f t="shared" ref="H26:H28" si="53">DEC2BIN(4,6)&amp;F26&amp;G26</f>
+        <v>0001000000000000</v>
+      </c>
+      <c r="I26" s="22" t="str">
+        <f t="shared" ref="I26:I28" si="54">DEC2BIN(QUOTIENT(D26,256),8)&amp;DEC2BIN(MOD(D26,256),8)</f>
+        <v>1111111111111111</v>
+      </c>
+      <c r="J26" s="24" t="str">
+        <f t="shared" ref="J26:J28" si="55">BIN2HEX(LEFTB(H26,8),2)</f>
         <v>10</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-    </row>
-    <row r="27" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>20</v>
+      <c r="K26" s="25" t="str">
+        <f t="shared" ref="K26:K28" si="56">BIN2HEX(RIGHTB(H26,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="L26" s="24" t="str">
+        <f t="shared" ref="L26:L28" si="57">BIN2HEX(LEFTB(I26,8),2)</f>
+        <v>FF</v>
+      </c>
+      <c r="M26" s="25" t="str">
+        <f t="shared" ref="M26:M28" si="58">BIN2HEX(RIGHTB(I26,8),2)</f>
+        <v>FF</v>
+      </c>
+      <c r="N26" s="26" t="str">
+        <f t="shared" ref="N26:N27" si="59">J26&amp;K26&amp;L26&amp;M26</f>
+        <v>1000FFFF</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>14</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E27" s="20"/>
       <c r="F27" s="21" t="str">
-        <f t="shared" ref="F27:G27" si="44">DEC2BIN(B27,5)</f>
-        <v>00011</v>
+        <f t="shared" ref="F27:G27" si="60">DEC2BIN(B27,5)</f>
+        <v>00001</v>
       </c>
       <c r="G27" s="22" t="str">
-        <f t="shared" si="44"/>
-        <v>00010</v>
+        <f t="shared" si="60"/>
+        <v>00001</v>
       </c>
       <c r="H27" s="23" t="str">
-        <f t="shared" ref="H27:H29" si="45">DEC2BIN(1,6)&amp;F27&amp;G27</f>
-        <v>0000010001100010</v>
+        <f t="shared" si="53"/>
+        <v>0001000000100001</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f t="shared" ref="I27:I29" si="46">DEC2BIN(D27,5)&amp;DEC2BIN(0,5)&amp;DEC2BIN(E27,6)</f>
-        <v>0001100000000000</v>
+        <f t="shared" si="54"/>
+        <v>0000000001101100</v>
       </c>
       <c r="J27" s="24" t="str">
-        <f t="shared" ref="J27:J29" si="47">BIN2HEX(LEFTB(H27,8),2)</f>
-        <v>04</v>
+        <f t="shared" si="55"/>
+        <v>10</v>
       </c>
       <c r="K27" s="25" t="str">
-        <f t="shared" ref="K27:K29" si="48">BIN2HEX(RIGHTB(H27,8),2)</f>
-        <v>62</v>
+        <f t="shared" si="56"/>
+        <v>21</v>
       </c>
       <c r="L27" s="24" t="str">
-        <f t="shared" ref="L27:L29" si="49">BIN2HEX(LEFTB(I27,8),2)</f>
-        <v>18</v>
+        <f t="shared" si="57"/>
+        <v>00</v>
       </c>
       <c r="M27" s="25" t="str">
-        <f t="shared" ref="M27:M29" si="50">BIN2HEX(RIGHTB(I27,8),2)</f>
-        <v>00</v>
+        <f t="shared" si="58"/>
+        <v>6C</v>
       </c>
       <c r="N27" s="26" t="str">
-        <f t="shared" ref="N27:N29" si="51">J27&amp;K27&amp;L27&amp;M27</f>
-        <v>04621800</v>
+        <f t="shared" si="59"/>
+        <v>1021006C</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -1874,59 +2142,46 @@
       <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="A28" s="28"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="21" t="str">
-        <f t="shared" ref="F28:G28" si="52">DEC2BIN(B28,5)</f>
-        <v>00001</v>
+        <f t="shared" ref="F28:G28" si="61">DEC2BIN(B28,5)</f>
+        <v>00000</v>
       </c>
       <c r="G28" s="22" t="str">
-        <f t="shared" si="52"/>
-        <v>00001</v>
+        <f t="shared" si="61"/>
+        <v>00000</v>
       </c>
       <c r="H28" s="23" t="str">
-        <f t="shared" si="45"/>
-        <v>0000010000100001</v>
+        <f t="shared" si="53"/>
+        <v>0001000000000000</v>
       </c>
       <c r="I28" s="22" t="str">
-        <f t="shared" si="46"/>
-        <v>0000100000000000</v>
+        <f t="shared" si="54"/>
+        <v>0000000000000000</v>
       </c>
       <c r="J28" s="24" t="str">
-        <f t="shared" si="47"/>
-        <v>04</v>
+        <f t="shared" si="55"/>
+        <v>10</v>
       </c>
       <c r="K28" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>21</v>
+        <f t="shared" si="56"/>
+        <v>00</v>
       </c>
       <c r="L28" s="24" t="str">
-        <f t="shared" si="49"/>
-        <v>08</v>
+        <f t="shared" si="57"/>
+        <v>00</v>
       </c>
       <c r="M28" s="25" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>00</v>
       </c>
-      <c r="N28" s="26" t="str">
-        <f t="shared" si="51"/>
-        <v>04210800</v>
-      </c>
+      <c r="N28" s="26"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -1935,57 +2190,20 @@
       <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="21" t="str">
-        <f t="shared" ref="F29:G29" si="53">DEC2BIN(B29,5)</f>
-        <v>11111</v>
-      </c>
-      <c r="G29" s="22" t="str">
-        <f t="shared" si="53"/>
-        <v>00001</v>
-      </c>
-      <c r="H29" s="23" t="str">
-        <f t="shared" si="45"/>
-        <v>0000011111100001</v>
-      </c>
-      <c r="I29" s="22" t="str">
-        <f t="shared" si="46"/>
-        <v>1111100000000001</v>
-      </c>
-      <c r="J29" s="24" t="str">
-        <f t="shared" si="47"/>
-        <v>07</v>
-      </c>
-      <c r="K29" s="25" t="str">
-        <f t="shared" si="48"/>
-        <v>E1</v>
-      </c>
-      <c r="L29" s="24" t="str">
-        <f t="shared" si="49"/>
-        <v>F8</v>
-      </c>
-      <c r="M29" s="25" t="str">
-        <f t="shared" si="50"/>
-        <v>01</v>
-      </c>
-      <c r="N29" s="26" t="str">
-        <f t="shared" si="51"/>
-        <v>07E1F801</v>
-      </c>
+      <c r="A29" s="29"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="32"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -1995,1758 +2213,2138 @@
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
     </row>
-    <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="20" t="s">
+    <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+    </row>
+    <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+    </row>
+    <row r="34" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="21" t="str">
-        <f t="shared" ref="F30" si="54">DEC2BIN(B30,5)</f>
-        <v>01000</v>
-      </c>
-      <c r="G30" s="22" t="str">
-        <f t="shared" ref="G30" si="55">DEC2BIN(C30,5)</f>
-        <v>00111</v>
-      </c>
-      <c r="H30" s="23" t="str">
-        <f t="shared" ref="H30" si="56">DEC2BIN(1,6)&amp;F30&amp;G30</f>
-        <v>0000010100000111</v>
-      </c>
-      <c r="I30" s="22" t="str">
-        <f t="shared" ref="I30" si="57">DEC2BIN(D30,5)&amp;DEC2BIN(0,5)&amp;DEC2BIN(E30,6)</f>
-        <v>0100000000000000</v>
-      </c>
-      <c r="J30" s="24" t="str">
-        <f t="shared" ref="J30" si="58">BIN2HEX(LEFTB(H30,8),2)</f>
-        <v>05</v>
-      </c>
-      <c r="K30" s="25" t="str">
-        <f t="shared" ref="K30" si="59">BIN2HEX(RIGHTB(H30,8),2)</f>
-        <v>07</v>
-      </c>
-      <c r="L30" s="24" t="str">
-        <f t="shared" ref="L30" si="60">BIN2HEX(LEFTB(I30,8),2)</f>
-        <v>40</v>
-      </c>
-      <c r="M30" s="25" t="str">
-        <f t="shared" ref="M30" si="61">BIN2HEX(RIGHTB(I30,8),2)</f>
-        <v>00</v>
-      </c>
-      <c r="N30" s="26" t="str">
-        <f>J30&amp;K30&amp;L30&amp;M30</f>
-        <v>05074000</v>
-      </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-    </row>
-    <row r="33" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="16.2" x14ac:dyDescent="0.45">
-      <c r="A36" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="21" t="str">
-        <f t="shared" ref="F36:G36" si="62">DEC2BIN(B36,5)</f>
-        <v>00001</v>
-      </c>
-      <c r="G36" s="22" t="str">
+      <c r="F34" s="21" t="str">
+        <f t="shared" ref="F34:G34" si="62">DEC2BIN(B34,5)</f>
+        <v>00011</v>
+      </c>
+      <c r="G34" s="22" t="str">
         <f t="shared" si="62"/>
         <v>00010</v>
       </c>
-      <c r="H36" s="23" t="str">
-        <f t="shared" ref="H36:H37" si="63">DEC2BIN(0,6)&amp;F36&amp;G36</f>
-        <v>0000000000100010</v>
-      </c>
-      <c r="I36" s="22" t="str">
-        <f t="shared" ref="I36:I37" si="64">DEC2BIN(D36,5)&amp;DEC2BIN(0,5)&amp;DEC2BIN(E36,6)</f>
+      <c r="H34" s="23" t="str">
+        <f t="shared" ref="H34:H36" si="63">DEC2BIN(1,6)&amp;F34&amp;G34</f>
+        <v>0000010001100010</v>
+      </c>
+      <c r="I34" s="22" t="str">
+        <f t="shared" ref="I34:I36" si="64">DEC2BIN(D34,5)&amp;DEC2BIN(0,5)&amp;DEC2BIN(E34,6)</f>
         <v>0001100000000000</v>
       </c>
-      <c r="J36" s="24" t="str">
-        <f t="shared" ref="J36:J37" si="65">BIN2HEX(LEFTB(H36,8),2)</f>
+      <c r="J34" s="24" t="str">
+        <f t="shared" ref="J34:J36" si="65">BIN2HEX(LEFTB(H34,8),2)</f>
+        <v>04</v>
+      </c>
+      <c r="K34" s="25" t="str">
+        <f t="shared" ref="K34:K36" si="66">BIN2HEX(RIGHTB(H34,8),2)</f>
+        <v>62</v>
+      </c>
+      <c r="L34" s="24" t="str">
+        <f t="shared" ref="L34:L36" si="67">BIN2HEX(LEFTB(I34,8),2)</f>
+        <v>18</v>
+      </c>
+      <c r="M34" s="25" t="str">
+        <f t="shared" ref="M34:M36" si="68">BIN2HEX(RIGHTB(I34,8),2)</f>
         <v>00</v>
       </c>
-      <c r="K36" s="25" t="str">
-        <f t="shared" ref="K36:K37" si="66">BIN2HEX(RIGHTB(H36,8),2)</f>
-        <v>22</v>
-      </c>
-      <c r="L36" s="24" t="str">
-        <f t="shared" ref="L36:L37" si="67">BIN2HEX(LEFTB(I36,8),2)</f>
-        <v>18</v>
-      </c>
-      <c r="M36" s="25" t="str">
-        <f t="shared" ref="M36:M37" si="68">BIN2HEX(RIGHTB(I36,8),2)</f>
-        <v>00</v>
-      </c>
-      <c r="N36" s="26" t="b">
-        <f>A6=J36&amp;K36&amp;L36&amp;M36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="16.2" x14ac:dyDescent="0.45">
-      <c r="A37" s="30"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21" t="str">
-        <f t="shared" ref="F37:G37" si="69">DEC2BIN(B37,5)</f>
-        <v>00000</v>
-      </c>
-      <c r="G37" s="22" t="str">
-        <f t="shared" si="69"/>
-        <v>00000</v>
-      </c>
-      <c r="H37" s="23" t="str">
+      <c r="N34" s="26" t="str">
+        <f t="shared" ref="N34:N36" si="69">J34&amp;K34&amp;L34&amp;M34</f>
+        <v>04621800</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="21" t="str">
+        <f t="shared" ref="F35:G35" si="70">DEC2BIN(B35,5)</f>
+        <v>00001</v>
+      </c>
+      <c r="G35" s="22" t="str">
+        <f t="shared" si="70"/>
+        <v>00001</v>
+      </c>
+      <c r="H35" s="23" t="str">
         <f t="shared" si="63"/>
-        <v>0000000000000000</v>
-      </c>
-      <c r="I37" s="22" t="str">
+        <v>0000010000100001</v>
+      </c>
+      <c r="I35" s="22" t="str">
         <f t="shared" si="64"/>
-        <v>0000000000000000</v>
-      </c>
-      <c r="J37" s="24" t="str">
+        <v>0000100000000000</v>
+      </c>
+      <c r="J35" s="24" t="str">
         <f t="shared" si="65"/>
-        <v>00</v>
-      </c>
-      <c r="K37" s="25" t="str">
+        <v>04</v>
+      </c>
+      <c r="K35" s="25" t="str">
         <f t="shared" si="66"/>
-        <v>00</v>
-      </c>
-      <c r="L37" s="24" t="str">
+        <v>21</v>
+      </c>
+      <c r="L35" s="24" t="str">
         <f t="shared" si="67"/>
-        <v>00</v>
-      </c>
-      <c r="M37" s="25" t="str">
+        <v>08</v>
+      </c>
+      <c r="M35" s="25" t="str">
         <f t="shared" si="68"/>
         <v>00</v>
       </c>
-      <c r="N37" s="26"/>
-    </row>
-    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-    </row>
-    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="47" t="s">
+      <c r="N35" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>04210800</v>
+      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+    </row>
+    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="21" t="str">
+        <f t="shared" ref="F36:G36" si="71">DEC2BIN(B36,5)</f>
+        <v>11111</v>
+      </c>
+      <c r="G36" s="22" t="str">
+        <f t="shared" si="71"/>
+        <v>00001</v>
+      </c>
+      <c r="H36" s="23" t="str">
+        <f t="shared" si="63"/>
+        <v>0000011111100001</v>
+      </c>
+      <c r="I36" s="22" t="str">
+        <f t="shared" si="64"/>
+        <v>1111100000000001</v>
+      </c>
+      <c r="J36" s="24" t="str">
+        <f t="shared" si="65"/>
+        <v>07</v>
+      </c>
+      <c r="K36" s="25" t="str">
+        <f t="shared" si="66"/>
+        <v>E1</v>
+      </c>
+      <c r="L36" s="24" t="str">
+        <f t="shared" si="67"/>
+        <v>F8</v>
+      </c>
+      <c r="M36" s="25" t="str">
+        <f t="shared" si="68"/>
+        <v>01</v>
+      </c>
+      <c r="N36" s="26" t="str">
+        <f t="shared" si="69"/>
+        <v>07E1F801</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+    </row>
+    <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="21" t="str">
+        <f t="shared" ref="F37:F42" si="72">DEC2BIN(B37,5)</f>
+        <v>01000</v>
+      </c>
+      <c r="G37" s="22" t="str">
+        <f t="shared" ref="G37:G42" si="73">DEC2BIN(C37,5)</f>
+        <v>00111</v>
+      </c>
+      <c r="H37" s="23" t="str">
+        <f t="shared" ref="H37:H42" si="74">DEC2BIN(1,6)&amp;F37&amp;G37</f>
+        <v>0000010100000111</v>
+      </c>
+      <c r="I37" s="22" t="str">
+        <f t="shared" ref="I37:I42" si="75">DEC2BIN(D37,5)&amp;DEC2BIN(0,5)&amp;DEC2BIN(E37,6)</f>
+        <v>0100000000000000</v>
+      </c>
+      <c r="J37" s="24" t="str">
+        <f t="shared" ref="J37:J42" si="76">BIN2HEX(LEFTB(H37,8),2)</f>
+        <v>05</v>
+      </c>
+      <c r="K37" s="25" t="str">
+        <f t="shared" ref="K37:K42" si="77">BIN2HEX(RIGHTB(H37,8),2)</f>
+        <v>07</v>
+      </c>
+      <c r="L37" s="24" t="str">
+        <f t="shared" ref="L37:L42" si="78">BIN2HEX(LEFTB(I37,8),2)</f>
+        <v>40</v>
+      </c>
+      <c r="M37" s="25" t="str">
+        <f t="shared" ref="M37:M42" si="79">BIN2HEX(RIGHTB(I37,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="N37" s="26" t="str">
+        <f>J37&amp;K37&amp;L37&amp;M37</f>
+        <v>05074000</v>
+      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="61" t="str">
+        <f t="shared" si="72"/>
+        <v>00011</v>
+      </c>
+      <c r="G38" s="22" t="str">
+        <f t="shared" si="73"/>
+        <v>00010</v>
+      </c>
+      <c r="H38" s="23" t="str">
+        <f t="shared" si="74"/>
+        <v>0000010001100010</v>
+      </c>
+      <c r="I38" s="22" t="str">
+        <f t="shared" si="75"/>
+        <v>0100000000000000</v>
+      </c>
+      <c r="J38" s="24" t="str">
+        <f t="shared" si="76"/>
+        <v>04</v>
+      </c>
+      <c r="K38" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v>62</v>
+      </c>
+      <c r="L38" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>40</v>
+      </c>
+      <c r="M38" s="25" t="str">
+        <f t="shared" si="79"/>
+        <v>00</v>
+      </c>
+      <c r="N38" s="62" t="str">
+        <f>J38&amp;K38&amp;L38&amp;M38</f>
+        <v>04624000</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+    </row>
+    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="61" t="str">
+        <f t="shared" si="72"/>
+        <v>00110</v>
+      </c>
+      <c r="G39" s="22" t="str">
+        <f t="shared" si="73"/>
+        <v>00111</v>
+      </c>
+      <c r="H39" s="23" t="str">
+        <f t="shared" si="74"/>
+        <v>0000010011000111</v>
+      </c>
+      <c r="I39" s="22" t="str">
+        <f t="shared" si="75"/>
+        <v>0101100000000000</v>
+      </c>
+      <c r="J39" s="24" t="str">
+        <f t="shared" si="76"/>
+        <v>04</v>
+      </c>
+      <c r="K39" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v>C7</v>
+      </c>
+      <c r="L39" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>58</v>
+      </c>
+      <c r="M39" s="25" t="str">
+        <f t="shared" si="79"/>
+        <v>00</v>
+      </c>
+      <c r="N39" s="62" t="str">
+        <f>J39&amp;K39&amp;L39&amp;M39</f>
+        <v>04C75800</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="61" t="str">
+        <f t="shared" si="72"/>
+        <v>01000</v>
+      </c>
+      <c r="G40" s="22" t="str">
+        <f t="shared" si="73"/>
+        <v>01010</v>
+      </c>
+      <c r="H40" s="23" t="str">
+        <f t="shared" si="74"/>
+        <v>0000010100001010</v>
+      </c>
+      <c r="I40" s="22" t="str">
+        <f t="shared" si="75"/>
+        <v>0100000000000000</v>
+      </c>
+      <c r="J40" s="24" t="str">
+        <f t="shared" si="76"/>
+        <v>05</v>
+      </c>
+      <c r="K40" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v>0A</v>
+      </c>
+      <c r="L40" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>40</v>
+      </c>
+      <c r="M40" s="25" t="str">
+        <f t="shared" si="79"/>
+        <v>00</v>
+      </c>
+      <c r="N40" s="62" t="str">
+        <f>J40&amp;K40&amp;L40&amp;M40</f>
+        <v>050A4000</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+    </row>
+    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="61" t="str">
+        <f t="shared" si="72"/>
+        <v>01000</v>
+      </c>
+      <c r="G41" s="22" t="str">
+        <f t="shared" si="73"/>
+        <v>01011</v>
+      </c>
+      <c r="H41" s="23" t="str">
+        <f t="shared" si="74"/>
+        <v>0000010100001011</v>
+      </c>
+      <c r="I41" s="22" t="str">
+        <f t="shared" si="75"/>
+        <v>0100000000000000</v>
+      </c>
+      <c r="J41" s="24" t="str">
+        <f t="shared" si="76"/>
+        <v>05</v>
+      </c>
+      <c r="K41" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v>0B</v>
+      </c>
+      <c r="L41" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>40</v>
+      </c>
+      <c r="M41" s="25" t="str">
+        <f t="shared" si="79"/>
+        <v>00</v>
+      </c>
+      <c r="N41" s="62" t="str">
+        <f>J41&amp;K41&amp;L41&amp;M41</f>
+        <v>050B4000</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+    </row>
+    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="61" t="str">
+        <f t="shared" si="72"/>
+        <v>00100</v>
+      </c>
+      <c r="G42" s="22" t="str">
+        <f t="shared" si="73"/>
+        <v>00101</v>
+      </c>
+      <c r="H42" s="23" t="str">
+        <f t="shared" si="74"/>
+        <v>0000010010000101</v>
+      </c>
+      <c r="I42" s="22" t="str">
+        <f t="shared" si="75"/>
+        <v>0101000000000000</v>
+      </c>
+      <c r="J42" s="24" t="str">
+        <f t="shared" si="76"/>
+        <v>04</v>
+      </c>
+      <c r="K42" s="25" t="str">
+        <f t="shared" si="77"/>
+        <v>85</v>
+      </c>
+      <c r="L42" s="24" t="str">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="M42" s="25" t="str">
+        <f t="shared" si="79"/>
+        <v>00</v>
+      </c>
+      <c r="N42" s="62" t="str">
+        <f>J42&amp;K42&amp;L42&amp;M42</f>
+        <v>04855000</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+    </row>
+    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+    </row>
+    <row r="44" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="39"/>
+    </row>
+    <row r="47" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="21" t="str">
+        <f t="shared" ref="F48:G48" si="80">DEC2BIN(B48,5)</f>
+        <v>00001</v>
+      </c>
+      <c r="G48" s="22" t="str">
+        <f t="shared" si="80"/>
+        <v>00010</v>
+      </c>
+      <c r="H48" s="23" t="str">
+        <f t="shared" ref="H48:H49" si="81">DEC2BIN(0,6)&amp;F48&amp;G48</f>
+        <v>0000000000100010</v>
+      </c>
+      <c r="I48" s="22" t="str">
+        <f t="shared" ref="I48:I49" si="82">DEC2BIN(D48,5)&amp;DEC2BIN(0,5)&amp;DEC2BIN(E48,6)</f>
+        <v>0001100000000000</v>
+      </c>
+      <c r="J48" s="24" t="str">
+        <f t="shared" ref="J48:J49" si="83">BIN2HEX(LEFTB(H48,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="K48" s="25" t="str">
+        <f t="shared" ref="K48:K49" si="84">BIN2HEX(RIGHTB(H48,8),2)</f>
+        <v>22</v>
+      </c>
+      <c r="L48" s="24" t="str">
+        <f t="shared" ref="L48:L49" si="85">BIN2HEX(LEFTB(I48,8),2)</f>
+        <v>18</v>
+      </c>
+      <c r="M48" s="25" t="str">
+        <f t="shared" ref="M48:M49" si="86">BIN2HEX(RIGHTB(I48,8),2)</f>
+        <v>00</v>
+      </c>
+      <c r="N48" s="26" t="b">
+        <f>A6=J48&amp;K48&amp;L48&amp;M48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="16.2" x14ac:dyDescent="0.45">
+      <c r="A49" s="28"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21" t="str">
+        <f t="shared" ref="F49:G49" si="87">DEC2BIN(B49,5)</f>
+        <v>00000</v>
+      </c>
+      <c r="G49" s="22" t="str">
+        <f t="shared" si="87"/>
+        <v>00000</v>
+      </c>
+      <c r="H49" s="23" t="str">
+        <f t="shared" si="81"/>
+        <v>0000000000000000</v>
+      </c>
+      <c r="I49" s="22" t="str">
+        <f t="shared" si="82"/>
+        <v>0000000000000000</v>
+      </c>
+      <c r="J49" s="24" t="str">
+        <f t="shared" si="83"/>
+        <v>00</v>
+      </c>
+      <c r="K49" s="25" t="str">
+        <f t="shared" si="84"/>
+        <v>00</v>
+      </c>
+      <c r="L49" s="24" t="str">
+        <f t="shared" si="85"/>
+        <v>00</v>
+      </c>
+      <c r="M49" s="25" t="str">
+        <f t="shared" si="86"/>
+        <v>00</v>
+      </c>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="51" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="39"/>
+      <c r="Q51" s="39"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="39"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+    </row>
+    <row r="52" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-    </row>
-    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-    </row>
-    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="39"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+    </row>
+    <row r="53" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="42"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+    </row>
+    <row r="54" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B54" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-    </row>
-    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+    </row>
+    <row r="55" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9" t="s">
+      <c r="B55" s="58"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="11" t="s">
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-    </row>
-    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="39"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+    </row>
+    <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F56" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H56" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17" t="s">
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-    </row>
-    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="30" t="s">
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+    </row>
+    <row r="57" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D57" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21" t="str">
-        <f t="shared" ref="F45" si="70">DEC2BIN(B45,5)</f>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21" t="str">
+        <f t="shared" ref="F57" si="88">DEC2BIN(B57,5)</f>
         <v>00000</v>
       </c>
-      <c r="G45" s="22" t="str">
-        <f t="shared" ref="G45" si="71">DEC2BIN(C45,5)</f>
+      <c r="G57" s="22" t="str">
+        <f t="shared" ref="G57" si="89">DEC2BIN(C57,5)</f>
         <v>00000</v>
       </c>
-      <c r="H45" s="23" t="str">
-        <f>DEC2BIN(5,6)&amp;F45&amp;G45</f>
+      <c r="H57" s="23" t="str">
+        <f>DEC2BIN(5,6)&amp;F57&amp;G57</f>
         <v>0001010000000000</v>
       </c>
-      <c r="I45" s="22" t="str">
-        <f t="shared" ref="I45" si="72">DEC2BIN(QUOTIENT(D45,256),8)&amp;DEC2BIN(MOD(D45,256),8)</f>
+      <c r="I57" s="22" t="str">
+        <f t="shared" ref="I57" si="90">DEC2BIN(QUOTIENT(D57,256),8)&amp;DEC2BIN(MOD(D57,256),8)</f>
         <v>0000000000000101</v>
       </c>
-      <c r="J45" s="24" t="str">
-        <f t="shared" ref="J45" si="73">BIN2HEX(LEFTB(H45,8),2)</f>
+      <c r="J57" s="24" t="str">
+        <f t="shared" ref="J57" si="91">BIN2HEX(LEFTB(H57,8),2)</f>
         <v>14</v>
       </c>
-      <c r="K45" s="25" t="str">
-        <f t="shared" ref="K45" si="74">BIN2HEX(RIGHTB(H45,8),2)</f>
+      <c r="K57" s="25" t="str">
+        <f t="shared" ref="K57" si="92">BIN2HEX(RIGHTB(H57,8),2)</f>
         <v>00</v>
       </c>
-      <c r="L45" s="24" t="str">
-        <f t="shared" ref="L45" si="75">BIN2HEX(LEFTB(I45,8),2)</f>
+      <c r="L57" s="24" t="str">
+        <f t="shared" ref="L57" si="93">BIN2HEX(LEFTB(I57,8),2)</f>
         <v>00</v>
       </c>
-      <c r="M45" s="25" t="str">
-        <f t="shared" ref="M45" si="76">BIN2HEX(RIGHTB(I45,8),2)</f>
+      <c r="M57" s="25" t="str">
+        <f t="shared" ref="M57" si="94">BIN2HEX(RIGHTB(I57,8),2)</f>
         <v>05</v>
       </c>
-      <c r="N45" s="26" t="str">
-        <f t="shared" ref="N45" si="77">J45&amp;K45&amp;L45&amp;M45</f>
+      <c r="N57" s="26" t="str">
+        <f t="shared" ref="N57" si="95">J57&amp;K57&amp;L57&amp;M57</f>
         <v>14000005</v>
       </c>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-    </row>
-    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="30" t="s">
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+    </row>
+    <row r="58" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D58" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21" t="str">
-        <f t="shared" ref="F46" si="78">DEC2BIN(B46,5)</f>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21" t="str">
+        <f t="shared" ref="F58" si="96">DEC2BIN(B58,5)</f>
         <v>00000</v>
       </c>
-      <c r="G46" s="22" t="str">
-        <f t="shared" ref="G46" si="79">DEC2BIN(C46,5)</f>
+      <c r="G58" s="22" t="str">
+        <f t="shared" ref="G58" si="97">DEC2BIN(C58,5)</f>
         <v>00000</v>
       </c>
-      <c r="H46" s="23" t="str">
-        <f>DEC2BIN(5,6)&amp;F46&amp;G46</f>
+      <c r="H58" s="23" t="str">
+        <f>DEC2BIN(5,6)&amp;F58&amp;G58</f>
         <v>0001010000000000</v>
       </c>
-      <c r="I46" s="22" t="str">
-        <f t="shared" ref="I46" si="80">DEC2BIN(QUOTIENT(D46,256),8)&amp;DEC2BIN(MOD(D46,256),8)</f>
+      <c r="I58" s="22" t="str">
+        <f t="shared" ref="I58" si="98">DEC2BIN(QUOTIENT(D58,256),8)&amp;DEC2BIN(MOD(D58,256),8)</f>
         <v>1111111111111111</v>
       </c>
-      <c r="J46" s="24" t="str">
-        <f t="shared" ref="J46" si="81">BIN2HEX(LEFTB(H46,8),2)</f>
+      <c r="J58" s="24" t="str">
+        <f t="shared" ref="J58" si="99">BIN2HEX(LEFTB(H58,8),2)</f>
         <v>14</v>
       </c>
-      <c r="K46" s="25" t="str">
-        <f t="shared" ref="K46" si="82">BIN2HEX(RIGHTB(H46,8),2)</f>
+      <c r="K58" s="25" t="str">
+        <f t="shared" ref="K58" si="100">BIN2HEX(RIGHTB(H58,8),2)</f>
         <v>00</v>
       </c>
-      <c r="L46" s="24" t="str">
-        <f t="shared" ref="L46" si="83">BIN2HEX(LEFTB(I46,8),2)</f>
+      <c r="L58" s="24" t="str">
+        <f t="shared" ref="L58" si="101">BIN2HEX(LEFTB(I58,8),2)</f>
         <v>FF</v>
       </c>
-      <c r="M46" s="25" t="str">
-        <f t="shared" ref="M46" si="84">BIN2HEX(RIGHTB(I46,8),2)</f>
+      <c r="M58" s="25" t="str">
+        <f t="shared" ref="M58" si="102">BIN2HEX(RIGHTB(I58,8),2)</f>
         <v>FF</v>
       </c>
-      <c r="N46" s="26" t="str">
-        <f t="shared" ref="N46" si="85">J46&amp;K46&amp;L46&amp;M46</f>
+      <c r="N58" s="26" t="str">
+        <f t="shared" ref="N58" si="103">J58&amp;K58&amp;L58&amp;M58</f>
         <v>1400FFFF</v>
       </c>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-    </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="20" t="s">
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+    </row>
+    <row r="59" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C59" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21" t="str">
-        <f t="shared" ref="F47" si="86">DEC2BIN(B47,5)</f>
+      <c r="D59" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21" t="str">
+        <f t="shared" ref="F59" si="104">DEC2BIN(B59,5)</f>
         <v>00000</v>
       </c>
-      <c r="G47" s="22" t="str">
-        <f t="shared" ref="G47" si="87">DEC2BIN(C47,5)</f>
+      <c r="G59" s="22" t="str">
+        <f t="shared" ref="G59" si="105">DEC2BIN(C59,5)</f>
         <v>00000</v>
       </c>
-      <c r="H47" s="23" t="str">
-        <f>DEC2BIN(5,6)&amp;F47&amp;G47</f>
+      <c r="H59" s="23" t="str">
+        <f>DEC2BIN(5,6)&amp;F59&amp;G59</f>
         <v>0001010000000000</v>
       </c>
-      <c r="I47" s="22" t="str">
-        <f t="shared" ref="I47" si="88">DEC2BIN(QUOTIENT(D47,256),8)&amp;DEC2BIN(MOD(D47,256),8)</f>
+      <c r="I59" s="22" t="str">
+        <f t="shared" ref="I59" si="106">DEC2BIN(QUOTIENT(D59,256),8)&amp;DEC2BIN(MOD(D59,256),8)</f>
         <v>0000000000010011</v>
       </c>
-      <c r="J47" s="24" t="str">
-        <f t="shared" ref="J47" si="89">BIN2HEX(LEFTB(H47,8),2)</f>
+      <c r="J59" s="24" t="str">
+        <f t="shared" ref="J59" si="107">BIN2HEX(LEFTB(H59,8),2)</f>
         <v>14</v>
       </c>
-      <c r="K47" s="25" t="str">
-        <f t="shared" ref="K47" si="90">BIN2HEX(RIGHTB(H47,8),2)</f>
+      <c r="K59" s="25" t="str">
+        <f t="shared" ref="K59" si="108">BIN2HEX(RIGHTB(H59,8),2)</f>
         <v>00</v>
       </c>
-      <c r="L47" s="24" t="str">
-        <f t="shared" ref="L47" si="91">BIN2HEX(LEFTB(I47,8),2)</f>
+      <c r="L59" s="24" t="str">
+        <f t="shared" ref="L59" si="109">BIN2HEX(LEFTB(I59,8),2)</f>
         <v>00</v>
       </c>
-      <c r="M47" s="25" t="str">
-        <f t="shared" ref="M47" si="92">BIN2HEX(RIGHTB(I47,8),2)</f>
+      <c r="M59" s="25" t="str">
+        <f t="shared" ref="M59" si="110">BIN2HEX(RIGHTB(I59,8),2)</f>
         <v>13</v>
       </c>
-      <c r="N47" s="26" t="str">
-        <f>J47&amp;K47&amp;L47&amp;M47</f>
-        <v>14000013</v>
-      </c>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-    </row>
-    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="N59" s="26" t="b">
+        <f>A7=J59&amp;K59&amp;L59&amp;M59</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+    </row>
+    <row r="60" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B60" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-    </row>
-    <row r="49" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+    </row>
+    <row r="61" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9" t="s">
+      <c r="B61" s="58"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="11" t="s">
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-    </row>
-    <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+    </row>
+    <row r="62" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F62" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G62" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="I62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="17" t="s">
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-    </row>
-    <row r="51" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="51" t="s">
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+    </row>
+    <row r="63" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D63" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21" t="str">
-        <f t="shared" ref="F51:F52" si="93">DEC2BIN(B51,5)</f>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21" t="str">
+        <f t="shared" ref="F63:F64" si="111">DEC2BIN(B63,5)</f>
         <v>00000</v>
       </c>
-      <c r="G51" s="22" t="str">
-        <f t="shared" ref="G51:G52" si="94">DEC2BIN(C51,5)</f>
+      <c r="G63" s="22" t="str">
+        <f t="shared" ref="G63:G64" si="112">DEC2BIN(C63,5)</f>
         <v>00000</v>
       </c>
-      <c r="H51" s="23" t="str">
-        <f>DEC2BIN(6,6)&amp;F51&amp;G51</f>
+      <c r="H63" s="23" t="str">
+        <f>DEC2BIN(6,6)&amp;F63&amp;G63</f>
         <v>0001100000000000</v>
       </c>
-      <c r="I51" s="22" t="str">
-        <f t="shared" ref="I51:I52" si="95">DEC2BIN(QUOTIENT(D51,256),8)&amp;DEC2BIN(MOD(D51,256),8)</f>
+      <c r="I63" s="22" t="str">
+        <f t="shared" ref="I63:I64" si="113">DEC2BIN(QUOTIENT(D63,256),8)&amp;DEC2BIN(MOD(D63,256),8)</f>
         <v>0000000000000000</v>
       </c>
-      <c r="J51" s="24" t="str">
-        <f t="shared" ref="J51:J52" si="96">BIN2HEX(LEFTB(H51,8),2)</f>
+      <c r="J63" s="24" t="str">
+        <f t="shared" ref="J63:J64" si="114">BIN2HEX(LEFTB(H63,8),2)</f>
         <v>18</v>
       </c>
-      <c r="K51" s="25" t="str">
-        <f t="shared" ref="K51:K52" si="97">BIN2HEX(RIGHTB(H51,8),2)</f>
+      <c r="K63" s="25" t="str">
+        <f t="shared" ref="K63:K64" si="115">BIN2HEX(RIGHTB(H63,8),2)</f>
         <v>00</v>
       </c>
-      <c r="L51" s="24" t="str">
-        <f t="shared" ref="L51:L52" si="98">BIN2HEX(LEFTB(I51,8),2)</f>
+      <c r="L63" s="24" t="str">
+        <f t="shared" ref="L63:L64" si="116">BIN2HEX(LEFTB(I63,8),2)</f>
         <v>00</v>
       </c>
-      <c r="M51" s="25" t="str">
-        <f t="shared" ref="M51:M52" si="99">BIN2HEX(RIGHTB(I51,8),2)</f>
+      <c r="M63" s="25" t="str">
+        <f t="shared" ref="M63:M64" si="117">BIN2HEX(RIGHTB(I63,8),2)</f>
         <v>00</v>
       </c>
-      <c r="N51" s="26" t="str">
-        <f t="shared" ref="N51:N52" si="100">J51&amp;K51&amp;L51&amp;M51</f>
+      <c r="N63" s="26" t="str">
+        <f t="shared" ref="N63:N64" si="118">J63&amp;K63&amp;L63&amp;M63</f>
         <v>18000000</v>
       </c>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-    </row>
-    <row r="52" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="51" t="s">
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+    </row>
+    <row r="64" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B64" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D64" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21" t="str">
-        <f t="shared" si="93"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21" t="str">
+        <f t="shared" si="111"/>
         <v>00001</v>
       </c>
-      <c r="G52" s="22" t="str">
-        <f t="shared" si="94"/>
+      <c r="G64" s="22" t="str">
+        <f t="shared" si="112"/>
         <v>00000</v>
       </c>
-      <c r="H52" s="23" t="str">
-        <f>DEC2BIN(6,6)&amp;F52&amp;G52</f>
+      <c r="H64" s="23" t="str">
+        <f>DEC2BIN(6,6)&amp;F64&amp;G64</f>
         <v>0001100000100000</v>
       </c>
-      <c r="I52" s="22" t="str">
-        <f t="shared" si="95"/>
+      <c r="I64" s="22" t="str">
+        <f t="shared" si="113"/>
         <v>0000000000000000</v>
       </c>
-      <c r="J52" s="24" t="str">
-        <f t="shared" si="96"/>
+      <c r="J64" s="24" t="str">
+        <f t="shared" si="114"/>
         <v>18</v>
       </c>
-      <c r="K52" s="25" t="str">
-        <f t="shared" si="97"/>
+      <c r="K64" s="25" t="str">
+        <f t="shared" si="115"/>
         <v>20</v>
       </c>
-      <c r="L52" s="24" t="str">
-        <f t="shared" si="98"/>
+      <c r="L64" s="24" t="str">
+        <f t="shared" si="116"/>
         <v>00</v>
       </c>
-      <c r="M52" s="25" t="str">
-        <f t="shared" si="99"/>
+      <c r="M64" s="25" t="str">
+        <f t="shared" si="117"/>
         <v>00</v>
       </c>
-      <c r="N52" s="26" t="str">
-        <f t="shared" si="100"/>
+      <c r="N64" s="26" t="str">
+        <f t="shared" si="118"/>
         <v>18200000</v>
       </c>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="41"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-    </row>
-    <row r="53" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-    </row>
-    <row r="54" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-    </row>
-    <row r="55" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-    </row>
-    <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-    </row>
-    <row r="57" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="46"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-    </row>
-    <row r="58" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-    </row>
-    <row r="59" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-    </row>
-    <row r="60" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-    </row>
-    <row r="61" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-    </row>
-    <row r="62" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="48"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
-      <c r="Y62" s="35"/>
-      <c r="Z62" s="35"/>
-      <c r="AA62" s="35"/>
-      <c r="AB62" s="35"/>
-    </row>
-    <row r="63" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
-      <c r="Y63" s="35"/>
-      <c r="Z63" s="35"/>
-      <c r="AA63" s="35"/>
-      <c r="AB63" s="35"/>
-    </row>
-    <row r="64" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
     </row>
     <row r="65" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
     </row>
     <row r="66" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
     </row>
     <row r="67" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="36"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
     </row>
     <row r="68" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="33"/>
     </row>
     <row r="69" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
     </row>
     <row r="70" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
     </row>
     <row r="71" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="33"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
     </row>
     <row r="72" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="50"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="33"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="33"/>
     </row>
     <row r="73" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="50"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="33"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
     </row>
     <row r="74" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
     </row>
     <row r="75" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="50"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
     </row>
     <row r="76" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="33"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="33"/>
     </row>
     <row r="77" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="38"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="33"/>
+      <c r="X77" s="33"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="33"/>
     </row>
     <row r="78" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="38"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
     </row>
     <row r="79" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="38"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="33"/>
+      <c r="U79" s="33"/>
+      <c r="V79" s="33"/>
+      <c r="W79" s="33"/>
+      <c r="X79" s="33"/>
+      <c r="Y79" s="33"/>
+      <c r="Z79" s="33"/>
+      <c r="AA79" s="33"/>
+      <c r="AB79" s="33"/>
     </row>
     <row r="80" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="P80" s="7"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="39"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
     </row>
     <row r="81" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="P81" s="7"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+      <c r="P81" s="39"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
     </row>
     <row r="82" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="P82" s="39"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
     </row>
     <row r="83" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="7"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
     </row>
     <row r="84" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="7"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
     </row>
     <row r="85" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="7"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
     </row>
     <row r="86" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="7"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
     </row>
     <row r="87" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="7"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
     </row>
     <row r="88" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="7"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
     </row>
     <row r="89" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="7"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
     </row>
     <row r="90" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="7"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
     </row>
     <row r="91" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="7"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
     </row>
     <row r="92" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="7"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
     </row>
     <row r="93" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="7"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
@@ -20392,44 +20990,310 @@
       <c r="R925" s="7"/>
       <c r="S925" s="7"/>
     </row>
+    <row r="926" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B926" s="2"/>
+      <c r="C926" s="2"/>
+      <c r="D926" s="2"/>
+      <c r="E926" s="2"/>
+      <c r="F926" s="3"/>
+      <c r="G926" s="3"/>
+      <c r="H926" s="4"/>
+      <c r="I926" s="5"/>
+      <c r="J926" s="6"/>
+      <c r="K926" s="6"/>
+      <c r="L926" s="6"/>
+      <c r="M926" s="6"/>
+      <c r="N926" s="6"/>
+      <c r="O926" s="7"/>
+      <c r="P926" s="7"/>
+      <c r="Q926" s="7"/>
+      <c r="R926" s="7"/>
+      <c r="S926" s="7"/>
+    </row>
+    <row r="927" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B927" s="2"/>
+      <c r="C927" s="2"/>
+      <c r="D927" s="2"/>
+      <c r="E927" s="2"/>
+      <c r="F927" s="3"/>
+      <c r="G927" s="3"/>
+      <c r="H927" s="4"/>
+      <c r="I927" s="5"/>
+      <c r="J927" s="6"/>
+      <c r="K927" s="6"/>
+      <c r="L927" s="6"/>
+      <c r="M927" s="6"/>
+      <c r="N927" s="6"/>
+      <c r="O927" s="7"/>
+      <c r="P927" s="7"/>
+      <c r="Q927" s="7"/>
+      <c r="R927" s="7"/>
+      <c r="S927" s="7"/>
+    </row>
+    <row r="928" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B928" s="2"/>
+      <c r="C928" s="2"/>
+      <c r="D928" s="2"/>
+      <c r="E928" s="2"/>
+      <c r="F928" s="3"/>
+      <c r="G928" s="3"/>
+      <c r="H928" s="4"/>
+      <c r="I928" s="5"/>
+      <c r="J928" s="6"/>
+      <c r="K928" s="6"/>
+      <c r="L928" s="6"/>
+      <c r="M928" s="6"/>
+      <c r="N928" s="6"/>
+      <c r="O928" s="7"/>
+      <c r="P928" s="7"/>
+      <c r="Q928" s="7"/>
+      <c r="R928" s="7"/>
+      <c r="S928" s="7"/>
+    </row>
+    <row r="929" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B929" s="2"/>
+      <c r="C929" s="2"/>
+      <c r="D929" s="2"/>
+      <c r="E929" s="2"/>
+      <c r="F929" s="3"/>
+      <c r="G929" s="3"/>
+      <c r="H929" s="4"/>
+      <c r="I929" s="5"/>
+      <c r="J929" s="6"/>
+      <c r="K929" s="6"/>
+      <c r="L929" s="6"/>
+      <c r="M929" s="6"/>
+      <c r="N929" s="6"/>
+      <c r="O929" s="7"/>
+      <c r="P929" s="7"/>
+      <c r="Q929" s="7"/>
+      <c r="R929" s="7"/>
+      <c r="S929" s="7"/>
+    </row>
+    <row r="930" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B930" s="2"/>
+      <c r="C930" s="2"/>
+      <c r="D930" s="2"/>
+      <c r="E930" s="2"/>
+      <c r="F930" s="3"/>
+      <c r="G930" s="3"/>
+      <c r="H930" s="4"/>
+      <c r="I930" s="5"/>
+      <c r="J930" s="6"/>
+      <c r="K930" s="6"/>
+      <c r="L930" s="6"/>
+      <c r="M930" s="6"/>
+      <c r="N930" s="6"/>
+      <c r="O930" s="7"/>
+      <c r="P930" s="7"/>
+      <c r="Q930" s="7"/>
+      <c r="R930" s="7"/>
+      <c r="S930" s="7"/>
+    </row>
+    <row r="931" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B931" s="2"/>
+      <c r="C931" s="2"/>
+      <c r="D931" s="2"/>
+      <c r="E931" s="2"/>
+      <c r="F931" s="3"/>
+      <c r="G931" s="3"/>
+      <c r="H931" s="4"/>
+      <c r="I931" s="5"/>
+      <c r="J931" s="6"/>
+      <c r="K931" s="6"/>
+      <c r="L931" s="6"/>
+      <c r="M931" s="6"/>
+      <c r="N931" s="6"/>
+      <c r="O931" s="7"/>
+      <c r="P931" s="7"/>
+      <c r="Q931" s="7"/>
+      <c r="R931" s="7"/>
+      <c r="S931" s="7"/>
+    </row>
+    <row r="932" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B932" s="2"/>
+      <c r="C932" s="2"/>
+      <c r="D932" s="2"/>
+      <c r="E932" s="2"/>
+      <c r="F932" s="3"/>
+      <c r="G932" s="3"/>
+      <c r="H932" s="4"/>
+      <c r="I932" s="5"/>
+      <c r="J932" s="6"/>
+      <c r="K932" s="6"/>
+      <c r="L932" s="6"/>
+      <c r="M932" s="6"/>
+      <c r="N932" s="6"/>
+      <c r="O932" s="7"/>
+      <c r="P932" s="7"/>
+      <c r="Q932" s="7"/>
+      <c r="R932" s="7"/>
+      <c r="S932" s="7"/>
+    </row>
+    <row r="933" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B933" s="2"/>
+      <c r="C933" s="2"/>
+      <c r="D933" s="2"/>
+      <c r="E933" s="2"/>
+      <c r="F933" s="3"/>
+      <c r="G933" s="3"/>
+      <c r="H933" s="4"/>
+      <c r="I933" s="5"/>
+      <c r="J933" s="6"/>
+      <c r="K933" s="6"/>
+      <c r="L933" s="6"/>
+      <c r="M933" s="6"/>
+      <c r="N933" s="6"/>
+      <c r="O933" s="7"/>
+      <c r="P933" s="7"/>
+      <c r="Q933" s="7"/>
+      <c r="R933" s="7"/>
+      <c r="S933" s="7"/>
+    </row>
+    <row r="934" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B934" s="2"/>
+      <c r="C934" s="2"/>
+      <c r="D934" s="2"/>
+      <c r="E934" s="2"/>
+      <c r="F934" s="3"/>
+      <c r="G934" s="3"/>
+      <c r="H934" s="4"/>
+      <c r="I934" s="5"/>
+      <c r="J934" s="6"/>
+      <c r="K934" s="6"/>
+      <c r="L934" s="6"/>
+      <c r="M934" s="6"/>
+      <c r="N934" s="6"/>
+      <c r="O934" s="7"/>
+      <c r="P934" s="7"/>
+      <c r="Q934" s="7"/>
+      <c r="R934" s="7"/>
+      <c r="S934" s="7"/>
+    </row>
+    <row r="935" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B935" s="2"/>
+      <c r="C935" s="2"/>
+      <c r="D935" s="2"/>
+      <c r="E935" s="2"/>
+      <c r="F935" s="3"/>
+      <c r="G935" s="3"/>
+      <c r="H935" s="4"/>
+      <c r="I935" s="5"/>
+      <c r="J935" s="6"/>
+      <c r="K935" s="6"/>
+      <c r="L935" s="6"/>
+      <c r="M935" s="6"/>
+      <c r="N935" s="6"/>
+      <c r="O935" s="7"/>
+      <c r="P935" s="7"/>
+      <c r="Q935" s="7"/>
+      <c r="R935" s="7"/>
+      <c r="S935" s="7"/>
+    </row>
+    <row r="936" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B936" s="2"/>
+      <c r="C936" s="2"/>
+      <c r="D936" s="2"/>
+      <c r="E936" s="2"/>
+      <c r="F936" s="3"/>
+      <c r="G936" s="3"/>
+      <c r="H936" s="4"/>
+      <c r="I936" s="5"/>
+      <c r="J936" s="6"/>
+      <c r="K936" s="6"/>
+      <c r="L936" s="6"/>
+      <c r="M936" s="6"/>
+      <c r="N936" s="6"/>
+      <c r="O936" s="7"/>
+      <c r="P936" s="7"/>
+      <c r="Q936" s="7"/>
+      <c r="R936" s="7"/>
+      <c r="S936" s="7"/>
+    </row>
+    <row r="937" spans="2:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B937" s="2"/>
+      <c r="C937" s="2"/>
+      <c r="D937" s="2"/>
+      <c r="E937" s="2"/>
+      <c r="F937" s="3"/>
+      <c r="G937" s="3"/>
+      <c r="H937" s="4"/>
+      <c r="I937" s="5"/>
+      <c r="J937" s="6"/>
+      <c r="K937" s="6"/>
+      <c r="L937" s="6"/>
+      <c r="M937" s="6"/>
+      <c r="N937" s="6"/>
+      <c r="O937" s="7"/>
+      <c r="P937" s="7"/>
+      <c r="Q937" s="7"/>
+      <c r="R937" s="7"/>
+      <c r="S937" s="7"/>
+    </row>
+    <row r="938" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P938" s="7"/>
+    </row>
+    <row r="939" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P939" s="7"/>
+    </row>
+    <row r="940" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P940" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B48:N48"/>
-    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B60:N60"/>
+    <mergeCell ref="B61:G61"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B16:N16"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B42:N42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B23:N23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B54:N54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B46:G46"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <conditionalFormatting sqref="I24:I25 J37:J38 I40:I41 I53:I64 I27:I38">
+  <phoneticPr fontId="14" type="noConversion"/>
+  <conditionalFormatting sqref="I31:I32 I34:I50 J49:J50 I52:I53 I65:I76">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>_xludf.LEN(I24)&gt;=16</formula>
+      <formula>_xludf.LEN(I31)&gt;=16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B37 J17:N41 J1:N15">
+  <conditionalFormatting sqref="J24:N53 B47:B49 J1:N22">
     <cfRule type="notContainsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:N47">
+  <conditionalFormatting sqref="J55:N59">
     <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(R43))&gt;0</formula>
+      <formula>LEN(TRIM(R55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:N925">
+  <conditionalFormatting sqref="J61:N937">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(R49))&gt;0</formula>
+      <formula>LEN(TRIM(R61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:D8" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF84B6A1-DE34-4CFA-9612-67980E172CD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>